--- a/teaching/traditional_assets/database/data/croatia/croatia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/croatia/croatia_insurance_general.xlsx
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0317</v>
+        <v>0.0214</v>
       </c>
       <c r="G2">
-        <v>0.1450965398585357</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="H2">
-        <v>0.1450965398585357</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="I2">
-        <v>0.09940737908621677</v>
+        <v>0.1157356699525374</v>
       </c>
       <c r="J2">
-        <v>0.08451639517451628</v>
+        <v>0.09448867382692233</v>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>54.5</v>
       </c>
       <c r="L2">
-        <v>0.08029057541579047</v>
+        <v>0.09948886454910552</v>
       </c>
       <c r="M2">
-        <v>0.161</v>
+        <v>0.007</v>
       </c>
       <c r="N2">
-        <v>0.0003777569216330361</v>
+        <v>1.603665521191294e-05</v>
       </c>
       <c r="O2">
-        <v>0.003833333333333334</v>
+        <v>0.0001284403669724771</v>
       </c>
       <c r="P2">
-        <v>0.161</v>
+        <v>0.007</v>
       </c>
       <c r="Q2">
-        <v>0.0003777569216330361</v>
+        <v>1.603665521191294e-05</v>
       </c>
       <c r="R2">
-        <v>0.003833333333333334</v>
+        <v>0.0001284403669724771</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>60.8</v>
+        <v>107</v>
       </c>
       <c r="V2">
-        <v>0.1426560300328484</v>
+        <v>0.2451317296678121</v>
       </c>
       <c r="W2">
-        <v>0.08364867556263691</v>
+        <v>0.09903688896965293</v>
       </c>
       <c r="X2">
-        <v>0.0629392066786318</v>
+        <v>0.06179411626139064</v>
       </c>
       <c r="Y2">
-        <v>0.02070946888400511</v>
+        <v>0.03724277270826229</v>
       </c>
       <c r="Z2">
-        <v>1.16404047327113</v>
+        <v>1.118404262920959</v>
       </c>
       <c r="AA2">
-        <v>0.09838050463811375</v>
+        <v>0.1056765356057779</v>
       </c>
       <c r="AB2">
-        <v>0.06293120978965451</v>
+        <v>0.05842742101559856</v>
       </c>
       <c r="AC2">
-        <v>0.03544929484845924</v>
+        <v>0.04724911459017938</v>
       </c>
       <c r="AD2">
-        <v>0.305</v>
+        <v>59.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.305</v>
+        <v>59.8</v>
       </c>
       <c r="AG2">
-        <v>-60.495</v>
+        <v>-47.2</v>
       </c>
       <c r="AH2">
-        <v>0.0007151147114336291</v>
+        <v>0.1204916381221036</v>
       </c>
       <c r="AI2">
-        <v>0.0005522311041906194</v>
+        <v>0.08755490483162517</v>
       </c>
       <c r="AJ2">
-        <v>-0.1654202157476655</v>
+        <v>-0.1212432571281788</v>
       </c>
       <c r="AK2">
-        <v>-0.1230811487166967</v>
+        <v>-0.08194444444444444</v>
       </c>
       <c r="AL2">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="AM2">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="AN2">
-        <v>0.005049668874172185</v>
+        <v>0.8542857142857142</v>
       </c>
       <c r="AO2">
-        <v>39.39393939393939</v>
+        <v>34.45652173913043</v>
       </c>
       <c r="AP2">
-        <v>-1.001572847682119</v>
+        <v>-0.6742857142857144</v>
       </c>
       <c r="AQ2">
-        <v>39.39393939393939</v>
+        <v>34.45652173913043</v>
       </c>
     </row>
     <row r="3">
@@ -722,43 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0317</v>
+        <v>0.0214</v>
       </c>
       <c r="G3">
-        <v>0.1450965398585357</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="H3">
-        <v>0.1450965398585357</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="I3">
-        <v>0.09940737908621677</v>
+        <v>0.1157356699525374</v>
       </c>
       <c r="J3">
-        <v>0.08451639517451628</v>
+        <v>0.09448867382692233</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>54.5</v>
       </c>
       <c r="L3">
-        <v>0.08029057541579047</v>
+        <v>0.09948886454910552</v>
       </c>
       <c r="M3">
-        <v>0.161</v>
+        <v>0.007</v>
       </c>
       <c r="N3">
-        <v>0.0003777569216330361</v>
+        <v>1.603665521191294e-05</v>
       </c>
       <c r="O3">
-        <v>0.003833333333333334</v>
+        <v>0.0001284403669724771</v>
       </c>
       <c r="P3">
-        <v>0.161</v>
+        <v>0.007</v>
       </c>
       <c r="Q3">
-        <v>0.0003777569216330361</v>
+        <v>1.603665521191294e-05</v>
       </c>
       <c r="R3">
-        <v>0.003833333333333334</v>
+        <v>0.0001284403669724771</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>60.8</v>
+        <v>107</v>
       </c>
       <c r="V3">
-        <v>0.1426560300328484</v>
+        <v>0.2451317296678121</v>
       </c>
       <c r="W3">
-        <v>0.08364867556263691</v>
+        <v>0.09903688896965293</v>
       </c>
       <c r="X3">
-        <v>0.0629392066786318</v>
+        <v>0.06179411626139064</v>
       </c>
       <c r="Y3">
-        <v>0.02070946888400511</v>
+        <v>0.03724277270826229</v>
       </c>
       <c r="Z3">
-        <v>1.16404047327113</v>
+        <v>1.118404262920959</v>
       </c>
       <c r="AA3">
-        <v>0.09838050463811375</v>
+        <v>0.1056765356057779</v>
       </c>
       <c r="AB3">
-        <v>0.06293120978965451</v>
+        <v>0.05842742101559856</v>
       </c>
       <c r="AC3">
-        <v>0.03544929484845924</v>
+        <v>0.04724911459017938</v>
       </c>
       <c r="AD3">
-        <v>0.305</v>
+        <v>59.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.305</v>
+        <v>59.8</v>
       </c>
       <c r="AG3">
-        <v>-60.495</v>
+        <v>-47.2</v>
       </c>
       <c r="AH3">
-        <v>0.0007151147114336291</v>
+        <v>0.1204916381221036</v>
       </c>
       <c r="AI3">
-        <v>0.0005522311041906194</v>
+        <v>0.08755490483162517</v>
       </c>
       <c r="AJ3">
-        <v>-0.1654202157476655</v>
+        <v>-0.1212432571281788</v>
       </c>
       <c r="AK3">
-        <v>-0.1230811487166967</v>
+        <v>-0.08194444444444444</v>
       </c>
       <c r="AL3">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="AM3">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="AN3">
-        <v>0.005049668874172185</v>
+        <v>0.8542857142857142</v>
       </c>
       <c r="AO3">
-        <v>39.39393939393939</v>
+        <v>34.45652173913043</v>
       </c>
       <c r="AP3">
-        <v>-1.001572847682119</v>
+        <v>-0.6742857142857144</v>
       </c>
       <c r="AQ3">
-        <v>39.39393939393939</v>
+        <v>34.45652173913043</v>
       </c>
     </row>
   </sheetData>
